--- a/biology/Biologie cellulaire et moléculaire/Liste_des_principaux_allergènes/Liste_des_principaux_allergènes.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Liste_des_principaux_allergènes/Liste_des_principaux_allergènes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_principaux_allerg%C3%A8nes</t>
+          <t>Liste_des_principaux_allergènes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un allergène est une substance capable de provoquer une réaction allergique chez un sujet préalablement sensibilisé. Les allergènes sont très nombreux, très variés, et concernent une grande population, en partie dans les pays développés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_principaux_allerg%C3%A8nes</t>
+          <t>Liste_des_principaux_allergènes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Chez l'adulte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les allergies professionnelles sont courantes, notamment dans certaines professions exposées.
 Les éleveurs, travailleurs du bois et ouvriers en contact avec des allergènes (industrie chimique, pétrolière, etc.) peuvent se sensibiliser et être victime de rhinite évoluant vers un asthme chronique parfois accompagné d'urticaire ou d'œdèmes, éventuellement mortels. On ne les classe pas toujours dans les maladies professionnelles. C'est un des domaines relevant de la médecine du travail.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_principaux_allerg%C3%A8nes</t>
+          <t>Liste_des_principaux_allergènes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tous allergènes confondus
-Acariens (en particulier Dermatophagoides pteronyssinus et Dermatophagoides farinae) (10 % des enfants[1])
+          <t>Tous allergènes confondus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acariens (en particulier Dermatophagoides pteronyssinus et Dermatophagoides farinae) (10 % des enfants)
 Pollens de graminées (dactyle, phléole, ivraie)
 Poils de chat
 Blattes et cafards
@@ -555,9 +574,43 @@
 Poils de lapin
 Allergies alimentaires (3 %) (particulièrement à risque, car l'allergène est très souvent invisible)
 Lavande (essence de lavande)
-latex
-Allergènes alimentaires
-Note: Les pourcentages reflètent la proportion d'enfants allergiques sensibles à cet allergène[réf. souhaitée]. On en déduit que très souvent, l'individu allergique est sensible à de nombreux allergènes différents (ce qui explique que la désensibilisation soit souvent impossible).
+latex</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_principaux_allergènes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principaux_allerg%C3%A8nes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chez l'enfant, par ordre de fréquence</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allergènes alimentaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Note: Les pourcentages reflètent la proportion d'enfants allergiques sensibles à cet allergène[réf. souhaitée]. On en déduit que très souvent, l'individu allergique est sensible à de nombreux allergènes différents (ce qui explique que la désensibilisation soit souvent impossible).
 Œuf (31 %)
 Arachide (18 %)
 Poisson (12 %)
@@ -581,34 +634,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_principaux_allerg%C3%A8nes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_principaux_allergènes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_principaux_allerg%C3%A8nes</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Chez l'adulte, par ordre de fréquence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Allergènes alimentaires
-Drupacées (11 %)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Allergènes alimentaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Drupacées (11 %)
 Ombellifères (11 %)
 Œuf (8 %)
 Crustacés (8 %)
@@ -628,35 +686,37 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_principaux_allerg%C3%A8nes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_principaux_allergènes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_principaux_allerg%C3%A8nes</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Principaux allergènes impliqués dans les chocs anaphylactiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Médicaments :
 Sérums et vaccins
-Contrastant radiologique injecté ; les molécules des produits contrastant contenant de l'iode, on croit souvent à tort qu'il s'agit d'une allergie à l'iode[2]
+Contrastant radiologique injecté ; les molécules des produits contrastant contenant de l'iode, on croit souvent à tort qu'il s'agit d'une allergie à l'iode
 Antibiotiques : pénicillines, céphalosporines
 Aspirine
 Procaïne
